--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H2">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I2">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J2">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N2">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O2">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P2">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q2">
-        <v>19.66589676280866</v>
+        <v>81.42556247462868</v>
       </c>
       <c r="R2">
-        <v>176.993070865278</v>
+        <v>732.8300622716581</v>
       </c>
       <c r="S2">
-        <v>0.009177949320725241</v>
+        <v>0.02669447870706503</v>
       </c>
       <c r="T2">
-        <v>0.009177949320725243</v>
+        <v>0.02669447870706504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H3">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I3">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J3">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q3">
-        <v>57.03380503880734</v>
+        <v>240.6489676477499</v>
       </c>
       <c r="R3">
-        <v>513.304245349266</v>
+        <v>2165.840708829749</v>
       </c>
       <c r="S3">
-        <v>0.02661731516887809</v>
+        <v>0.07889412793128313</v>
       </c>
       <c r="T3">
-        <v>0.02661731516887809</v>
+        <v>0.07889412793128314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H4">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I4">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J4">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q4">
-        <v>206.4312054294967</v>
+        <v>871.0177489137728</v>
       </c>
       <c r="R4">
-        <v>1857.88084886547</v>
+        <v>7839.159740223955</v>
       </c>
       <c r="S4">
-        <v>0.0963401346248883</v>
+        <v>0.2855536276964534</v>
       </c>
       <c r="T4">
-        <v>0.0963401346248883</v>
+        <v>0.2855536276964534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>374.7361</v>
       </c>
       <c r="I5">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J5">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N5">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O5">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P5">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q5">
-        <v>104.5485821979222</v>
+        <v>102.5920017451333</v>
       </c>
       <c r="R5">
-        <v>940.9372397812998</v>
+        <v>923.3280157062001</v>
       </c>
       <c r="S5">
-        <v>0.04879216038502004</v>
+        <v>0.033633663960921</v>
       </c>
       <c r="T5">
-        <v>0.04879216038502006</v>
+        <v>0.03363366396092101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>374.7361</v>
       </c>
       <c r="I6">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J6">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q6">
         <v>303.2052657490111</v>
@@ -818,10 +818,10 @@
         <v>2728.8473917411</v>
       </c>
       <c r="S6">
-        <v>0.141503974946323</v>
+        <v>0.09940252501085203</v>
       </c>
       <c r="T6">
-        <v>0.141503974946323</v>
+        <v>0.09940252501085203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>374.7361</v>
       </c>
       <c r="I7">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J7">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q7">
         <v>1097.437361202722</v>
@@ -880,10 +880,10 @@
         <v>9876.936250824499</v>
       </c>
       <c r="S7">
-        <v>0.5121670577889538</v>
+        <v>0.3597828173442691</v>
       </c>
       <c r="T7">
-        <v>0.5121670577889538</v>
+        <v>0.3597828173442691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H8">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I8">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J8">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N8">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O8">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P8">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q8">
-        <v>24.616923484035</v>
+        <v>24.15622865409</v>
       </c>
       <c r="R8">
-        <v>221.552311356315</v>
+        <v>217.40605788681</v>
       </c>
       <c r="S8">
-        <v>0.01148856209780981</v>
+        <v>0.007919354952574313</v>
       </c>
       <c r="T8">
-        <v>0.01148856209780981</v>
+        <v>0.007919354952574315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H9">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I9">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J9">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q9">
         <v>71.39246338864501</v>
       </c>
       <c r="R9">
-        <v>642.5321704978052</v>
+        <v>642.5321704978051</v>
       </c>
       <c r="S9">
-        <v>0.03331840997466601</v>
+        <v>0.02340523707609543</v>
       </c>
       <c r="T9">
-        <v>0.03331840997466601</v>
+        <v>0.02340523707609543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H10">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I10">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J10">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q10">
         <v>258.401701690275</v>
@@ -1066,10 +1066,10 @@
         <v>2325.615315212475</v>
       </c>
       <c r="S10">
-        <v>0.1205944356927356</v>
+        <v>0.08471416732048645</v>
       </c>
       <c r="T10">
-        <v>0.1205944356927356</v>
+        <v>0.08471416732048645</v>
       </c>
     </row>
   </sheetData>
